--- a/data/pca/factorExposure/factorExposure_2012-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-16.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01837289940902771</v>
+        <v>-0.02102149605198723</v>
       </c>
       <c r="C2">
-        <v>-0.03444141183051099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02671438467209537</v>
+      </c>
+      <c r="D2">
+        <v>-0.00723083264773063</v>
+      </c>
+      <c r="E2">
+        <v>0.02776250830244774</v>
+      </c>
+      <c r="F2">
+        <v>-0.01359029102566371</v>
+      </c>
+      <c r="G2">
+        <v>0.01074948573273958</v>
+      </c>
+      <c r="H2">
+        <v>0.05062559943793141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07111217134204111</v>
+        <v>-0.08053704147184963</v>
       </c>
       <c r="C4">
-        <v>-0.05973983578675317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03979784040719032</v>
+      </c>
+      <c r="D4">
+        <v>0.07203782526302915</v>
+      </c>
+      <c r="E4">
+        <v>0.0007915757998815426</v>
+      </c>
+      <c r="F4">
+        <v>-0.03420515985710144</v>
+      </c>
+      <c r="G4">
+        <v>-0.004772344345452725</v>
+      </c>
+      <c r="H4">
+        <v>-0.02893831473523841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1006107290052066</v>
+        <v>-0.1168139897010359</v>
       </c>
       <c r="C6">
-        <v>-0.06495242416493469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04147409673871414</v>
+      </c>
+      <c r="D6">
+        <v>0.01144459305753811</v>
+      </c>
+      <c r="E6">
+        <v>-0.0016276040754976</v>
+      </c>
+      <c r="F6">
+        <v>-0.05872103808882989</v>
+      </c>
+      <c r="G6">
+        <v>0.01698189987524868</v>
+      </c>
+      <c r="H6">
+        <v>0.07244449341404612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04900775856049705</v>
+        <v>-0.05968032411803693</v>
       </c>
       <c r="C7">
-        <v>-0.03289587852747566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02262640409091394</v>
+      </c>
+      <c r="D7">
+        <v>0.04012503976550423</v>
+      </c>
+      <c r="E7">
+        <v>0.02282171067836564</v>
+      </c>
+      <c r="F7">
+        <v>-0.03368605240058813</v>
+      </c>
+      <c r="G7">
+        <v>-0.04200871376464285</v>
+      </c>
+      <c r="H7">
+        <v>-0.02699586320389567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03426942647366046</v>
+        <v>-0.03928650900071324</v>
       </c>
       <c r="C8">
-        <v>-0.02245081486244917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01374438996288388</v>
+      </c>
+      <c r="D8">
+        <v>0.04137357458342725</v>
+      </c>
+      <c r="E8">
+        <v>0.005701880504680564</v>
+      </c>
+      <c r="F8">
+        <v>-0.04799563054256183</v>
+      </c>
+      <c r="G8">
+        <v>0.02299658085069241</v>
+      </c>
+      <c r="H8">
+        <v>0.02590333506619135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06530136545384832</v>
+        <v>-0.07444753393091685</v>
       </c>
       <c r="C9">
-        <v>-0.0464384835100432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02818192556627029</v>
+      </c>
+      <c r="D9">
+        <v>0.06722092805166419</v>
+      </c>
+      <c r="E9">
+        <v>0.02108024156874816</v>
+      </c>
+      <c r="F9">
+        <v>-0.04144478127577454</v>
+      </c>
+      <c r="G9">
+        <v>-0.0008018155306574619</v>
+      </c>
+      <c r="H9">
+        <v>-0.05259596575724508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03276401075854081</v>
+        <v>-0.04004569252160275</v>
       </c>
       <c r="C10">
-        <v>-0.03232426639106182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03187106068302888</v>
+      </c>
+      <c r="D10">
+        <v>-0.1784743639222821</v>
+      </c>
+      <c r="E10">
+        <v>0.04889055930164104</v>
+      </c>
+      <c r="F10">
+        <v>-0.03901043361681619</v>
+      </c>
+      <c r="G10">
+        <v>-0.0365119207285995</v>
+      </c>
+      <c r="H10">
+        <v>0.02837560060263455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06726586325887213</v>
+        <v>-0.07620665869631156</v>
       </c>
       <c r="C11">
-        <v>-0.0521793699696604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03254585056970953</v>
+      </c>
+      <c r="D11">
+        <v>0.06466104053041953</v>
+      </c>
+      <c r="E11">
+        <v>-0.009772308836215412</v>
+      </c>
+      <c r="F11">
+        <v>-0.02863247573909988</v>
+      </c>
+      <c r="G11">
+        <v>-0.01311948342930931</v>
+      </c>
+      <c r="H11">
+        <v>-0.0921212163367441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05365511884162983</v>
+        <v>-0.06538384479375334</v>
       </c>
       <c r="C12">
-        <v>-0.05308110245598812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03826671547485875</v>
+      </c>
+      <c r="D12">
+        <v>0.04937104476873121</v>
+      </c>
+      <c r="E12">
+        <v>0.009650058333273778</v>
+      </c>
+      <c r="F12">
+        <v>-0.02444903211592921</v>
+      </c>
+      <c r="G12">
+        <v>-0.006468663552026774</v>
+      </c>
+      <c r="H12">
+        <v>-0.05219281831214297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05849494221746839</v>
+        <v>-0.0632313429040699</v>
       </c>
       <c r="C13">
-        <v>-0.0486579097936633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02906894139018483</v>
+      </c>
+      <c r="D13">
+        <v>0.04022002128593053</v>
+      </c>
+      <c r="E13">
+        <v>-0.001981453901026205</v>
+      </c>
+      <c r="F13">
+        <v>-0.001675520058854636</v>
+      </c>
+      <c r="G13">
+        <v>-0.006097909682458852</v>
+      </c>
+      <c r="H13">
+        <v>-0.06072626779344202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03156952786739746</v>
+        <v>-0.04135723052188882</v>
       </c>
       <c r="C14">
-        <v>-0.03193738431395002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02538774464388813</v>
+      </c>
+      <c r="D14">
+        <v>0.007216585624316779</v>
+      </c>
+      <c r="E14">
+        <v>0.02094228962057961</v>
+      </c>
+      <c r="F14">
+        <v>-0.01703324850520999</v>
+      </c>
+      <c r="G14">
+        <v>0.007337675383119402</v>
+      </c>
+      <c r="H14">
+        <v>-0.06100772126726164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03923893831129866</v>
+        <v>-0.03957043777972545</v>
       </c>
       <c r="C15">
-        <v>-0.01115965633158189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001679107888158732</v>
+      </c>
+      <c r="D15">
+        <v>0.006871123824966117</v>
+      </c>
+      <c r="E15">
+        <v>0.04025255372919283</v>
+      </c>
+      <c r="F15">
+        <v>0.0001465835801181981</v>
+      </c>
+      <c r="G15">
+        <v>0.02270533935963625</v>
+      </c>
+      <c r="H15">
+        <v>-0.05409557534873059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05637936205134098</v>
+        <v>-0.06430301256244615</v>
       </c>
       <c r="C16">
-        <v>-0.04535099384776074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02980027288619126</v>
+      </c>
+      <c r="D16">
+        <v>0.06050176615774124</v>
+      </c>
+      <c r="E16">
+        <v>0.0002984030297028312</v>
+      </c>
+      <c r="F16">
+        <v>-0.02438503309048151</v>
+      </c>
+      <c r="G16">
+        <v>-0.005946795130260862</v>
+      </c>
+      <c r="H16">
+        <v>-0.05599878054916999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06136379157246254</v>
+        <v>-0.06216373490206698</v>
       </c>
       <c r="C20">
-        <v>-0.03895909926466732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01851104960073076</v>
+      </c>
+      <c r="D20">
+        <v>0.05199944883109218</v>
+      </c>
+      <c r="E20">
+        <v>0.01832715175804554</v>
+      </c>
+      <c r="F20">
+        <v>-0.02708223566450311</v>
+      </c>
+      <c r="G20">
+        <v>-0.003624198769829412</v>
+      </c>
+      <c r="H20">
+        <v>-0.04840948581535037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0247918063613548</v>
+        <v>-0.02542794800666635</v>
       </c>
       <c r="C21">
-        <v>-0.002773042114871334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.005124076203028054</v>
+      </c>
+      <c r="D21">
+        <v>0.03489889573020406</v>
+      </c>
+      <c r="E21">
+        <v>0.07608617592447647</v>
+      </c>
+      <c r="F21">
+        <v>0.01464803254216093</v>
+      </c>
+      <c r="G21">
+        <v>0.01023336153943778</v>
+      </c>
+      <c r="H21">
+        <v>0.01926876480012632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06882659020403563</v>
+        <v>-0.06300199671272352</v>
       </c>
       <c r="C22">
-        <v>-0.06741364532502334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03954539985845769</v>
+      </c>
+      <c r="D22">
+        <v>0.09893202704168273</v>
+      </c>
+      <c r="E22">
+        <v>0.6103167736685847</v>
+      </c>
+      <c r="F22">
+        <v>0.1415854595495385</v>
+      </c>
+      <c r="G22">
+        <v>-0.01467775936605567</v>
+      </c>
+      <c r="H22">
+        <v>0.1319341023766798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06981659423400829</v>
+        <v>-0.06347822768108333</v>
       </c>
       <c r="C23">
-        <v>-0.06660008744272476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03839716674848425</v>
+      </c>
+      <c r="D23">
+        <v>0.09979130799464309</v>
+      </c>
+      <c r="E23">
+        <v>0.6093597436129674</v>
+      </c>
+      <c r="F23">
+        <v>0.1409496043041278</v>
+      </c>
+      <c r="G23">
+        <v>-0.01334251737903378</v>
+      </c>
+      <c r="H23">
+        <v>0.1272668875963694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06571101221842958</v>
+        <v>-0.07570709209576278</v>
       </c>
       <c r="C24">
-        <v>-0.05412728555631217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03498956155873639</v>
+      </c>
+      <c r="D24">
+        <v>0.06180722145758414</v>
+      </c>
+      <c r="E24">
+        <v>0.008412546045735424</v>
+      </c>
+      <c r="F24">
+        <v>-0.03666660278954276</v>
+      </c>
+      <c r="G24">
+        <v>0.0007841184283785493</v>
+      </c>
+      <c r="H24">
+        <v>-0.06479579590244043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.06571333683689121</v>
+        <v>-0.07411543201978886</v>
       </c>
       <c r="C25">
-        <v>-0.06003137609532604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03992271532358316</v>
+      </c>
+      <c r="D25">
+        <v>0.05820970304740399</v>
+      </c>
+      <c r="E25">
+        <v>0.01219219915669849</v>
+      </c>
+      <c r="F25">
+        <v>-0.03170921437582239</v>
+      </c>
+      <c r="G25">
+        <v>0.0118096983602094</v>
+      </c>
+      <c r="H25">
+        <v>-0.07158333197428439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04010316428524158</v>
+        <v>-0.0442437665588794</v>
       </c>
       <c r="C26">
-        <v>-0.01255250149503793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.004050860576463378</v>
+      </c>
+      <c r="D26">
+        <v>0.02912825963780875</v>
+      </c>
+      <c r="E26">
+        <v>0.0380449069929278</v>
+      </c>
+      <c r="F26">
+        <v>-0.02340057151699371</v>
+      </c>
+      <c r="G26">
+        <v>-0.009226238199706593</v>
+      </c>
+      <c r="H26">
+        <v>-0.06327596351334894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06003541783993323</v>
+        <v>-0.07652470228468088</v>
       </c>
       <c r="C28">
-        <v>-0.07004839091519297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.06677349129817972</v>
+      </c>
+      <c r="D28">
+        <v>-0.3164550173965587</v>
+      </c>
+      <c r="E28">
+        <v>0.0375750365732248</v>
+      </c>
+      <c r="F28">
+        <v>-0.05584460585123342</v>
+      </c>
+      <c r="G28">
+        <v>0.02848181699738906</v>
+      </c>
+      <c r="H28">
+        <v>-0.000416131369878147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03828330000204441</v>
+        <v>-0.04619534787093004</v>
       </c>
       <c r="C29">
-        <v>-0.03120465668007347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02330720048664359</v>
+      </c>
+      <c r="D29">
+        <v>0.0104739063656877</v>
+      </c>
+      <c r="E29">
+        <v>0.04256022571965518</v>
+      </c>
+      <c r="F29">
+        <v>-0.008477258517548195</v>
+      </c>
+      <c r="G29">
+        <v>-0.01007592797027846</v>
+      </c>
+      <c r="H29">
+        <v>-0.09128234651510132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1159925800126172</v>
+        <v>-0.1304644958706658</v>
       </c>
       <c r="C30">
-        <v>-0.1001739009751657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06478635424159501</v>
+      </c>
+      <c r="D30">
+        <v>0.09191779283705742</v>
+      </c>
+      <c r="E30">
+        <v>0.04269462296084774</v>
+      </c>
+      <c r="F30">
+        <v>-0.009057777269830097</v>
+      </c>
+      <c r="G30">
+        <v>0.02994563759289742</v>
+      </c>
+      <c r="H30">
+        <v>0.03390192801971246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03930263668659632</v>
+        <v>-0.04477543725185947</v>
       </c>
       <c r="C31">
-        <v>-0.02173109763389017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.011934090087194</v>
+      </c>
+      <c r="D31">
+        <v>0.02545123317355846</v>
+      </c>
+      <c r="E31">
+        <v>0.02465577037305568</v>
+      </c>
+      <c r="F31">
+        <v>-0.01334095908004052</v>
+      </c>
+      <c r="G31">
+        <v>-0.02069743289680567</v>
+      </c>
+      <c r="H31">
+        <v>-0.07149531732224772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03638525966337743</v>
+        <v>-0.03394279347325103</v>
       </c>
       <c r="C32">
-        <v>-0.02297103123001965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01179590565645776</v>
+      </c>
+      <c r="D32">
+        <v>0.01183616603243906</v>
+      </c>
+      <c r="E32">
+        <v>0.07164040012324673</v>
+      </c>
+      <c r="F32">
+        <v>0.0001899540380919941</v>
+      </c>
+      <c r="G32">
+        <v>0.03442341819019535</v>
+      </c>
+      <c r="H32">
+        <v>-0.04826253023349317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07452217922407026</v>
+        <v>-0.09072192487718324</v>
       </c>
       <c r="C33">
-        <v>-0.0475538420542581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03068604825974582</v>
+      </c>
+      <c r="D33">
+        <v>0.05919248817939971</v>
+      </c>
+      <c r="E33">
+        <v>0.01803175727772032</v>
+      </c>
+      <c r="F33">
+        <v>-0.01036251778186801</v>
+      </c>
+      <c r="G33">
+        <v>-0.01458819548437013</v>
+      </c>
+      <c r="H33">
+        <v>-0.06248857779405362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05244689350880921</v>
+        <v>-0.0585656284836689</v>
       </c>
       <c r="C34">
-        <v>-0.03375858314976664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01797653645741054</v>
+      </c>
+      <c r="D34">
+        <v>0.05845581306920702</v>
+      </c>
+      <c r="E34">
+        <v>0.003125265744983487</v>
+      </c>
+      <c r="F34">
+        <v>-0.02129681727437379</v>
+      </c>
+      <c r="G34">
+        <v>0.002262565910262898</v>
+      </c>
+      <c r="H34">
+        <v>-0.04900689088951325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03606519869062715</v>
+        <v>-0.04036964405550319</v>
       </c>
       <c r="C35">
-        <v>-0.01289662168109028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005305885208699001</v>
+      </c>
+      <c r="D35">
+        <v>0.01232272634900136</v>
+      </c>
+      <c r="E35">
+        <v>0.02086619395144261</v>
+      </c>
+      <c r="F35">
+        <v>0.006571068478587161</v>
+      </c>
+      <c r="G35">
+        <v>-0.0124137322733661</v>
+      </c>
+      <c r="H35">
+        <v>-0.036899593732261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01841007739117442</v>
+        <v>-0.02430525550690952</v>
       </c>
       <c r="C36">
-        <v>-0.01533830956813352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01135204118572542</v>
+      </c>
+      <c r="D36">
+        <v>0.01790491376363934</v>
+      </c>
+      <c r="E36">
+        <v>0.03904195480607097</v>
+      </c>
+      <c r="F36">
+        <v>-0.01817524312354239</v>
+      </c>
+      <c r="G36">
+        <v>-0.01470354891081855</v>
+      </c>
+      <c r="H36">
+        <v>-0.0554016340311999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03766809719897424</v>
+        <v>-0.04199847117349155</v>
       </c>
       <c r="C38">
-        <v>-0.00636064265247089</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0003091875073382828</v>
+      </c>
+      <c r="D38">
+        <v>0.02212964750800352</v>
+      </c>
+      <c r="E38">
+        <v>0.05866725257589071</v>
+      </c>
+      <c r="F38">
+        <v>0.006650128732259614</v>
+      </c>
+      <c r="G38">
+        <v>0.01500817741933</v>
+      </c>
+      <c r="H38">
+        <v>-0.02922630499876688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08704616156752874</v>
+        <v>-0.09925611290457741</v>
       </c>
       <c r="C39">
-        <v>-0.08253268939866018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05538103636351361</v>
+      </c>
+      <c r="D39">
+        <v>0.0718460398307053</v>
+      </c>
+      <c r="E39">
+        <v>-0.01404864481403989</v>
+      </c>
+      <c r="F39">
+        <v>-0.01256398099723111</v>
+      </c>
+      <c r="G39">
+        <v>0.02225565400289578</v>
+      </c>
+      <c r="H39">
+        <v>-0.04968387676374284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06774148388573746</v>
+        <v>-0.07012389489641337</v>
       </c>
       <c r="C40">
-        <v>-0.05342282812118146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03131804169995885</v>
+      </c>
+      <c r="D40">
+        <v>0.008008913252956749</v>
+      </c>
+      <c r="E40">
+        <v>0.02091378812908534</v>
+      </c>
+      <c r="F40">
+        <v>0.05073400668605465</v>
+      </c>
+      <c r="G40">
+        <v>0.06732729483990807</v>
+      </c>
+      <c r="H40">
+        <v>0.09051811343158936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03934015483887348</v>
+        <v>-0.04262096733450012</v>
       </c>
       <c r="C41">
-        <v>-0.0122338422688185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.003715304827137594</v>
+      </c>
+      <c r="D41">
+        <v>0.03882224400627161</v>
+      </c>
+      <c r="E41">
+        <v>0.0055614021897582</v>
+      </c>
+      <c r="F41">
+        <v>0.01133116797437226</v>
+      </c>
+      <c r="G41">
+        <v>0.01227118006843044</v>
+      </c>
+      <c r="H41">
+        <v>-0.04221798667818623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04408756884543358</v>
+        <v>-0.05230859766598153</v>
       </c>
       <c r="C43">
-        <v>-0.02919706618709133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0183692169857468</v>
+      </c>
+      <c r="D43">
+        <v>0.02495398696602381</v>
+      </c>
+      <c r="E43">
+        <v>0.01729949889885959</v>
+      </c>
+      <c r="F43">
+        <v>-0.01025333565491085</v>
+      </c>
+      <c r="G43">
+        <v>-0.004859872141517116</v>
+      </c>
+      <c r="H43">
+        <v>-0.05201467324640034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09085493561316635</v>
+        <v>-0.0907891238654812</v>
       </c>
       <c r="C44">
-        <v>-0.09695971243670545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06321276471699658</v>
+      </c>
+      <c r="D44">
+        <v>0.05716996708320551</v>
+      </c>
+      <c r="E44">
+        <v>0.1009997127536648</v>
+      </c>
+      <c r="F44">
+        <v>-0.05237468852904952</v>
+      </c>
+      <c r="G44">
+        <v>0.02951440810445254</v>
+      </c>
+      <c r="H44">
+        <v>0.02581151688919409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02495909911833022</v>
+        <v>-0.02906666116670904</v>
       </c>
       <c r="C46">
-        <v>-0.0157871722205698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009554782764522915</v>
+      </c>
+      <c r="D46">
+        <v>0.03137876701471964</v>
+      </c>
+      <c r="E46">
+        <v>0.01966071501837311</v>
+      </c>
+      <c r="F46">
+        <v>-0.01907079882244649</v>
+      </c>
+      <c r="G46">
+        <v>0.00204242127321042</v>
+      </c>
+      <c r="H46">
+        <v>-0.04229855681689896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02619217497881706</v>
+        <v>-0.03028550553167575</v>
       </c>
       <c r="C47">
-        <v>-0.02144422214799354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01419984432469567</v>
+      </c>
+      <c r="D47">
+        <v>0.01354359754499037</v>
+      </c>
+      <c r="E47">
+        <v>0.04917081348430603</v>
+      </c>
+      <c r="F47">
+        <v>-0.01353040500089804</v>
+      </c>
+      <c r="G47">
+        <v>-0.03403815733175524</v>
+      </c>
+      <c r="H47">
+        <v>-0.03667905570247206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02846922422082868</v>
+        <v>-0.03400137968275443</v>
       </c>
       <c r="C48">
-        <v>-0.02020387944766365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01242418825960895</v>
+      </c>
+      <c r="D48">
+        <v>0.03184098432365633</v>
+      </c>
+      <c r="E48">
+        <v>0.04092566096947165</v>
+      </c>
+      <c r="F48">
+        <v>-0.007351914969765823</v>
+      </c>
+      <c r="G48">
+        <v>0.006852026061569739</v>
+      </c>
+      <c r="H48">
+        <v>-0.05708072654325697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1534477895346905</v>
+        <v>-0.1837392112641159</v>
       </c>
       <c r="C49">
-        <v>-0.08836964528270269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05490349601211586</v>
+      </c>
+      <c r="D49">
+        <v>0.01907459861575454</v>
+      </c>
+      <c r="E49">
+        <v>-0.1253132810536722</v>
+      </c>
+      <c r="F49">
+        <v>-0.04176248964767194</v>
+      </c>
+      <c r="G49">
+        <v>-0.04458132792894968</v>
+      </c>
+      <c r="H49">
+        <v>0.2617198505809997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03479159986013812</v>
+        <v>-0.04373976532301259</v>
       </c>
       <c r="C50">
-        <v>-0.02642571952278161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01991782708240632</v>
+      </c>
+      <c r="D50">
+        <v>0.03495356590035658</v>
+      </c>
+      <c r="E50">
+        <v>0.04878189199089405</v>
+      </c>
+      <c r="F50">
+        <v>-0.0210111735505569</v>
+      </c>
+      <c r="G50">
+        <v>-0.01483649748765463</v>
+      </c>
+      <c r="H50">
+        <v>-0.07577586223278346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02438882329764451</v>
+        <v>-0.02598503283820591</v>
       </c>
       <c r="C51">
-        <v>-0.01454875963684228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009285992609031379</v>
+      </c>
+      <c r="D51">
+        <v>0.02231915923211402</v>
+      </c>
+      <c r="E51">
+        <v>0.01566686969277627</v>
+      </c>
+      <c r="F51">
+        <v>-0.01060279250487115</v>
+      </c>
+      <c r="G51">
+        <v>0.004700583461374711</v>
+      </c>
+      <c r="H51">
+        <v>-0.01097219238243683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1403842613351404</v>
+        <v>-0.1586204098495831</v>
       </c>
       <c r="C53">
-        <v>-0.09193369587360906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06090086866155137</v>
+      </c>
+      <c r="D53">
+        <v>0.02136236670399595</v>
+      </c>
+      <c r="E53">
+        <v>-0.03866973716548628</v>
+      </c>
+      <c r="F53">
+        <v>-0.01412308754123353</v>
+      </c>
+      <c r="G53">
+        <v>-0.00270060248198699</v>
+      </c>
+      <c r="H53">
+        <v>-0.1551858455953176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0525623605973978</v>
+        <v>-0.05658219340555636</v>
       </c>
       <c r="C54">
-        <v>-0.02704303357301286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01331374485508586</v>
+      </c>
+      <c r="D54">
+        <v>0.02852585514316591</v>
+      </c>
+      <c r="E54">
+        <v>0.0476782451598015</v>
+      </c>
+      <c r="F54">
+        <v>-0.01311466256834499</v>
+      </c>
+      <c r="G54">
+        <v>0.007566446607907484</v>
+      </c>
+      <c r="H54">
+        <v>-0.06108241165569138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0927356826839939</v>
+        <v>-0.09981160330478793</v>
       </c>
       <c r="C55">
-        <v>-0.0626531363885092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04012163954132216</v>
+      </c>
+      <c r="D55">
+        <v>0.02587637451043195</v>
+      </c>
+      <c r="E55">
+        <v>0.009666572699012018</v>
+      </c>
+      <c r="F55">
+        <v>-0.01518896472152923</v>
+      </c>
+      <c r="G55">
+        <v>0.005552497772862311</v>
+      </c>
+      <c r="H55">
+        <v>-0.1445273312233685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1399525819663284</v>
+        <v>-0.1597160964360899</v>
       </c>
       <c r="C56">
-        <v>-0.1040921139883811</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07045504406361069</v>
+      </c>
+      <c r="D56">
+        <v>0.01854987580910444</v>
+      </c>
+      <c r="E56">
+        <v>-0.03837768020262696</v>
+      </c>
+      <c r="F56">
+        <v>-0.03570307614504615</v>
+      </c>
+      <c r="G56">
+        <v>-0.01270572334553997</v>
+      </c>
+      <c r="H56">
+        <v>-0.1599670794825098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1184784077744528</v>
+        <v>-0.1009753222379954</v>
       </c>
       <c r="C58">
-        <v>-0.02245105469277418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01921790894511929</v>
+      </c>
+      <c r="D58">
+        <v>0.05608893948383992</v>
+      </c>
+      <c r="E58">
+        <v>0.1827651252577018</v>
+      </c>
+      <c r="F58">
+        <v>-0.01694953418590726</v>
+      </c>
+      <c r="G58">
+        <v>-0.04661824099329288</v>
+      </c>
+      <c r="H58">
+        <v>0.1710849640382767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1173943968411729</v>
+        <v>-0.1478745997461031</v>
       </c>
       <c r="C59">
-        <v>-0.08154580872659838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07405605161413706</v>
+      </c>
+      <c r="D59">
+        <v>-0.3611161178568728</v>
+      </c>
+      <c r="E59">
+        <v>0.04837232639194456</v>
+      </c>
+      <c r="F59">
+        <v>-0.001696845222411332</v>
+      </c>
+      <c r="G59">
+        <v>-0.03953570540566837</v>
+      </c>
+      <c r="H59">
+        <v>0.002715435753746206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1898416175892321</v>
+        <v>-0.2239509923556572</v>
       </c>
       <c r="C60">
-        <v>-0.1163621766588678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07670792347679045</v>
+      </c>
+      <c r="D60">
+        <v>0.02923772056801376</v>
+      </c>
+      <c r="E60">
+        <v>-0.07240401055985334</v>
+      </c>
+      <c r="F60">
+        <v>-0.05192587353316444</v>
+      </c>
+      <c r="G60">
+        <v>0.02483391884385708</v>
+      </c>
+      <c r="H60">
+        <v>0.1638871029064518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07487726469378661</v>
+        <v>-0.08488133948531928</v>
       </c>
       <c r="C61">
-        <v>-0.06230695972644949</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04162527905153771</v>
+      </c>
+      <c r="D61">
+        <v>0.05475088044621815</v>
+      </c>
+      <c r="E61">
+        <v>-0.01707219957100335</v>
+      </c>
+      <c r="F61">
+        <v>-0.008592366228010019</v>
+      </c>
+      <c r="G61">
+        <v>-0.01342020470547476</v>
+      </c>
+      <c r="H61">
+        <v>-0.06697156209137399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1220807814129865</v>
+        <v>-0.1401141101641097</v>
       </c>
       <c r="C62">
-        <v>-0.07953779393565935</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05253895182847342</v>
+      </c>
+      <c r="D62">
+        <v>0.02427364191735768</v>
+      </c>
+      <c r="E62">
+        <v>-0.05426860678385885</v>
+      </c>
+      <c r="F62">
+        <v>-0.01071832610900443</v>
+      </c>
+      <c r="G62">
+        <v>0.03019523720178374</v>
+      </c>
+      <c r="H62">
+        <v>-0.1521167570165703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05106838108246702</v>
+        <v>-0.05117529527684734</v>
       </c>
       <c r="C63">
-        <v>-0.03098125617782739</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01604689593241095</v>
+      </c>
+      <c r="D63">
+        <v>0.02771348775410321</v>
+      </c>
+      <c r="E63">
+        <v>0.04871809576907565</v>
+      </c>
+      <c r="F63">
+        <v>-0.005516511719091584</v>
+      </c>
+      <c r="G63">
+        <v>0.0357467890698529</v>
+      </c>
+      <c r="H63">
+        <v>-0.08451649632854692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1041696876960133</v>
+        <v>-0.1114290414784654</v>
       </c>
       <c r="C64">
-        <v>-0.04222778506716669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01547364751370297</v>
+      </c>
+      <c r="D64">
+        <v>0.05231811855124798</v>
+      </c>
+      <c r="E64">
+        <v>0.02370079404467093</v>
+      </c>
+      <c r="F64">
+        <v>-0.05123009950680505</v>
+      </c>
+      <c r="G64">
+        <v>0.02818489196140259</v>
+      </c>
+      <c r="H64">
+        <v>-0.070578821738363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1128077423857736</v>
+        <v>-0.1249167728839957</v>
       </c>
       <c r="C65">
-        <v>-0.06578731474042153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04027504016030806</v>
+      </c>
+      <c r="D65">
+        <v>0.005019147186737705</v>
+      </c>
+      <c r="E65">
+        <v>0.003469778763050338</v>
+      </c>
+      <c r="F65">
+        <v>-0.06648054430166844</v>
+      </c>
+      <c r="G65">
+        <v>0.03763839301479169</v>
+      </c>
+      <c r="H65">
+        <v>0.089588629371472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1343446059191809</v>
+        <v>-0.1514537655674608</v>
       </c>
       <c r="C66">
-        <v>-0.091726651984861</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05594917419232519</v>
+      </c>
+      <c r="D66">
+        <v>0.1131687605592556</v>
+      </c>
+      <c r="E66">
+        <v>-0.05288153897209352</v>
+      </c>
+      <c r="F66">
+        <v>-0.02585500084459231</v>
+      </c>
+      <c r="G66">
+        <v>0.02304589387855044</v>
+      </c>
+      <c r="H66">
+        <v>-0.1201351188976826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.06974059242701332</v>
+        <v>-0.07761643732425057</v>
       </c>
       <c r="C67">
-        <v>-0.02023993609611994</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006897213507779667</v>
+      </c>
+      <c r="D67">
+        <v>0.0310153539832289</v>
+      </c>
+      <c r="E67">
+        <v>0.02697577129842041</v>
+      </c>
+      <c r="F67">
+        <v>-0.01454097183718712</v>
+      </c>
+      <c r="G67">
+        <v>-0.00611248403655034</v>
+      </c>
+      <c r="H67">
+        <v>-0.0256444670490966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0602195140068567</v>
+        <v>-0.06835726809685734</v>
       </c>
       <c r="C68">
-        <v>-0.04619859532842087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0420383857880199</v>
+      </c>
+      <c r="D68">
+        <v>-0.2636267120461644</v>
+      </c>
+      <c r="E68">
+        <v>0.0495188018242766</v>
+      </c>
+      <c r="F68">
+        <v>-0.01198369253405544</v>
+      </c>
+      <c r="G68">
+        <v>-0.01225304949487029</v>
+      </c>
+      <c r="H68">
+        <v>-0.02319119216291489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04835660731759454</v>
+        <v>-0.04749637657808044</v>
       </c>
       <c r="C69">
-        <v>-0.0225462497080658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007497609091099177</v>
+      </c>
+      <c r="D69">
+        <v>0.02135923847727967</v>
+      </c>
+      <c r="E69">
+        <v>0.02451186501086973</v>
+      </c>
+      <c r="F69">
+        <v>0.004141587086531292</v>
+      </c>
+      <c r="G69">
+        <v>-0.009081547169426701</v>
+      </c>
+      <c r="H69">
+        <v>-0.06377609585843644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005077305013550363</v>
+        <v>-0.02089715690560769</v>
       </c>
       <c r="C70">
-        <v>0.003234719837569617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0001569295891265027</v>
+      </c>
+      <c r="D70">
+        <v>0.0005778194426942678</v>
+      </c>
+      <c r="E70">
+        <v>-0.02643870677290288</v>
+      </c>
+      <c r="F70">
+        <v>-0.01847448091831637</v>
+      </c>
+      <c r="G70">
+        <v>-0.01746835548851573</v>
+      </c>
+      <c r="H70">
+        <v>0.05485483896050264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06356482582853314</v>
+        <v>-0.07297862406471586</v>
       </c>
       <c r="C71">
-        <v>-0.04370342323857879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04032196921778061</v>
+      </c>
+      <c r="D71">
+        <v>-0.2935874344986178</v>
+      </c>
+      <c r="E71">
+        <v>0.04734557037705341</v>
+      </c>
+      <c r="F71">
+        <v>-0.04017589369194594</v>
+      </c>
+      <c r="G71">
+        <v>-0.00784357878185458</v>
+      </c>
+      <c r="H71">
+        <v>-0.01422759523229753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.134722612219819</v>
+        <v>-0.1550013943929131</v>
       </c>
       <c r="C72">
-        <v>-0.07100814495414048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04259690375171926</v>
+      </c>
+      <c r="D72">
+        <v>0.0003827378550913102</v>
+      </c>
+      <c r="E72">
+        <v>-0.09449538492658917</v>
+      </c>
+      <c r="F72">
+        <v>0.1607433766244283</v>
+      </c>
+      <c r="G72">
+        <v>0.112234036243114</v>
+      </c>
+      <c r="H72">
+        <v>-0.01494628511666211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2498641168923219</v>
+        <v>-0.2795399207391905</v>
       </c>
       <c r="C73">
-        <v>-0.1413449697047096</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0776699530817061</v>
+      </c>
+      <c r="D73">
+        <v>0.08686507104169909</v>
+      </c>
+      <c r="E73">
+        <v>-0.1822475141458533</v>
+      </c>
+      <c r="F73">
+        <v>-0.08776162732433494</v>
+      </c>
+      <c r="G73">
+        <v>-0.1890525392493439</v>
+      </c>
+      <c r="H73">
+        <v>0.5552279353306852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07327985939828956</v>
+        <v>-0.08828635393848626</v>
       </c>
       <c r="C74">
-        <v>-0.08353410636519683</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06286227696386537</v>
+      </c>
+      <c r="D74">
+        <v>0.02680784109971857</v>
+      </c>
+      <c r="E74">
+        <v>-0.005508602171486042</v>
+      </c>
+      <c r="F74">
+        <v>0.0120638944504651</v>
+      </c>
+      <c r="G74">
+        <v>-0.03561736886619143</v>
+      </c>
+      <c r="H74">
+        <v>-0.1287980522027592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09340371616937929</v>
+        <v>-0.1032487870191535</v>
       </c>
       <c r="C75">
-        <v>-0.0604129203620901</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0324130069117172</v>
+      </c>
+      <c r="D75">
+        <v>0.006743752654093435</v>
+      </c>
+      <c r="E75">
+        <v>0.001361350927205599</v>
+      </c>
+      <c r="F75">
+        <v>-0.04574479225017727</v>
+      </c>
+      <c r="G75">
+        <v>-0.01414201779107078</v>
+      </c>
+      <c r="H75">
+        <v>-0.1236509607147909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1178807693730306</v>
+        <v>-0.1332579317966618</v>
       </c>
       <c r="C76">
-        <v>-0.09826745772782994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06733480748885237</v>
+      </c>
+      <c r="D76">
+        <v>0.05121169653807133</v>
+      </c>
+      <c r="E76">
+        <v>0.01225061953078056</v>
+      </c>
+      <c r="F76">
+        <v>-0.05641265591927513</v>
+      </c>
+      <c r="G76">
+        <v>-0.005398089341016409</v>
+      </c>
+      <c r="H76">
+        <v>-0.1616227750236744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1173793388716078</v>
+        <v>-0.1143816991197748</v>
       </c>
       <c r="C77">
-        <v>-0.04942541571169115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01339575494425831</v>
+      </c>
+      <c r="D77">
+        <v>0.02420664169376418</v>
+      </c>
+      <c r="E77">
+        <v>-0.02174639546960319</v>
+      </c>
+      <c r="F77">
+        <v>-0.2183818995023082</v>
+      </c>
+      <c r="G77">
+        <v>0.8858361708840498</v>
+      </c>
+      <c r="H77">
+        <v>0.146904297756889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.08870079547771302</v>
+        <v>-0.117988396664153</v>
       </c>
       <c r="C78">
-        <v>-0.0491268521557123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03529224667107652</v>
+      </c>
+      <c r="D78">
+        <v>0.09331228408091781</v>
+      </c>
+      <c r="E78">
+        <v>0.06029337414978021</v>
+      </c>
+      <c r="F78">
+        <v>-0.01664619720786759</v>
+      </c>
+      <c r="G78">
+        <v>0.03815210822043064</v>
+      </c>
+      <c r="H78">
+        <v>0.1028694986597154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1388463502938262</v>
+        <v>-0.1514971725792161</v>
       </c>
       <c r="C79">
-        <v>-0.09971788788455999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05970278739701813</v>
+      </c>
+      <c r="D79">
+        <v>0.02893720821039832</v>
+      </c>
+      <c r="E79">
+        <v>-0.0245581888882232</v>
+      </c>
+      <c r="F79">
+        <v>-0.0151869655502636</v>
+      </c>
+      <c r="G79">
+        <v>-0.02015027292567519</v>
+      </c>
+      <c r="H79">
+        <v>-0.1576340535591813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0393368301348468</v>
+        <v>-0.04017542973915374</v>
       </c>
       <c r="C80">
-        <v>-0.01817136804280221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007505132697276271</v>
+      </c>
+      <c r="D80">
+        <v>0.02865679848711203</v>
+      </c>
+      <c r="E80">
+        <v>-0.003037894177728779</v>
+      </c>
+      <c r="F80">
+        <v>0.01754235918259958</v>
+      </c>
+      <c r="G80">
+        <v>-0.04143324423350354</v>
+      </c>
+      <c r="H80">
+        <v>-0.04436710307647018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.112307421824631</v>
+        <v>-0.1190557063271302</v>
       </c>
       <c r="C81">
-        <v>-0.07026896460163519</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03794097291236801</v>
+      </c>
+      <c r="D81">
+        <v>0.03045433718262973</v>
+      </c>
+      <c r="E81">
+        <v>-0.001612576996542366</v>
+      </c>
+      <c r="F81">
+        <v>-0.02245137729490901</v>
+      </c>
+      <c r="G81">
+        <v>-0.05453165301295061</v>
+      </c>
+      <c r="H81">
+        <v>-0.1788791792935197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1195303809808475</v>
+        <v>-0.1275695770929991</v>
       </c>
       <c r="C82">
-        <v>-0.0862458940336138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05373668817305428</v>
+      </c>
+      <c r="D82">
+        <v>0.03199921784328697</v>
+      </c>
+      <c r="E82">
+        <v>-0.01822004298924387</v>
+      </c>
+      <c r="F82">
+        <v>-0.05451016708071061</v>
+      </c>
+      <c r="G82">
+        <v>-0.05212153398406617</v>
+      </c>
+      <c r="H82">
+        <v>-0.1732868088620301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07137018921184902</v>
+        <v>-0.07800772372189743</v>
       </c>
       <c r="C83">
-        <v>-0.01239100939240649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005726821377435555</v>
+      </c>
+      <c r="D83">
+        <v>0.05217904440100585</v>
+      </c>
+      <c r="E83">
+        <v>0.01364625758144884</v>
+      </c>
+      <c r="F83">
+        <v>-0.03824194383638966</v>
+      </c>
+      <c r="G83">
+        <v>-0.1003504396573203</v>
+      </c>
+      <c r="H83">
+        <v>0.03822415478916769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02589529990342017</v>
+        <v>-0.03738431661528085</v>
       </c>
       <c r="C84">
-        <v>-0.02462812541911753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02122715706703297</v>
+      </c>
+      <c r="D84">
+        <v>0.03566414483099244</v>
+      </c>
+      <c r="E84">
+        <v>0.02250572486846268</v>
+      </c>
+      <c r="F84">
+        <v>0.05047487825692354</v>
+      </c>
+      <c r="G84">
+        <v>-0.06179079212384749</v>
+      </c>
+      <c r="H84">
+        <v>-0.01717801172536345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.11498329978134</v>
+        <v>-0.1177841515900138</v>
       </c>
       <c r="C85">
-        <v>-0.06705529131950198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0328238527006414</v>
+      </c>
+      <c r="D85">
+        <v>0.02655872197171375</v>
+      </c>
+      <c r="E85">
+        <v>0.005399480895939528</v>
+      </c>
+      <c r="F85">
+        <v>-0.05805417477474338</v>
+      </c>
+      <c r="G85">
+        <v>-0.01674741387609852</v>
+      </c>
+      <c r="H85">
+        <v>-0.1457732549412354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0469514929683711</v>
+        <v>-0.05010779582034858</v>
       </c>
       <c r="C86">
-        <v>-0.02509724362993777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01231129329994449</v>
+      </c>
+      <c r="D86">
+        <v>0.02244914840885963</v>
+      </c>
+      <c r="E86">
+        <v>0.06122690091833109</v>
+      </c>
+      <c r="F86">
+        <v>-0.02032884568546598</v>
+      </c>
+      <c r="G86">
+        <v>-0.00179916335422591</v>
+      </c>
+      <c r="H86">
+        <v>-0.01699607246455384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1188312058708443</v>
+        <v>-0.1215720754452466</v>
       </c>
       <c r="C87">
-        <v>-0.07843097669207683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03918862803681489</v>
+      </c>
+      <c r="D87">
+        <v>0.07145749591513212</v>
+      </c>
+      <c r="E87">
+        <v>0.01420922800585176</v>
+      </c>
+      <c r="F87">
+        <v>-0.01525226209535675</v>
+      </c>
+      <c r="G87">
+        <v>0.09825811076307352</v>
+      </c>
+      <c r="H87">
+        <v>0.001508242391358256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05275954784313351</v>
+        <v>-0.05767003315797636</v>
       </c>
       <c r="C88">
-        <v>-0.03228650794674148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01874124543586307</v>
+      </c>
+      <c r="D88">
+        <v>0.02570786074914744</v>
+      </c>
+      <c r="E88">
+        <v>0.01729964145896876</v>
+      </c>
+      <c r="F88">
+        <v>-0.006898448646388613</v>
+      </c>
+      <c r="G88">
+        <v>0.008709226944438823</v>
+      </c>
+      <c r="H88">
+        <v>-0.06551056444127962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08599147542585765</v>
+        <v>-0.1066175791129514</v>
       </c>
       <c r="C89">
-        <v>-0.06978972263429492</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.06625627606965624</v>
+      </c>
+      <c r="D89">
+        <v>-0.3300932892723431</v>
+      </c>
+      <c r="E89">
+        <v>0.07881883625993741</v>
+      </c>
+      <c r="F89">
+        <v>-0.07143844059849916</v>
+      </c>
+      <c r="G89">
+        <v>-0.02255061920409739</v>
+      </c>
+      <c r="H89">
+        <v>0.001698029178752883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07565880243548821</v>
+        <v>-0.08933773846219965</v>
       </c>
       <c r="C90">
-        <v>-0.05448630425817024</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05006258264226208</v>
+      </c>
+      <c r="D90">
+        <v>-0.3043419133671624</v>
+      </c>
+      <c r="E90">
+        <v>0.0645049261922611</v>
+      </c>
+      <c r="F90">
+        <v>-0.0004650181449141895</v>
+      </c>
+      <c r="G90">
+        <v>-0.003545437846056037</v>
+      </c>
+      <c r="H90">
+        <v>-0.02136750415891139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.07872340038922897</v>
+        <v>-0.0869468104866731</v>
       </c>
       <c r="C91">
-        <v>-0.06437692188680851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04072537153482744</v>
+      </c>
+      <c r="D91">
+        <v>0.02595657992707839</v>
+      </c>
+      <c r="E91">
+        <v>0.0140098429389869</v>
+      </c>
+      <c r="F91">
+        <v>-0.003114725344432097</v>
+      </c>
+      <c r="G91">
+        <v>-0.04474740865432955</v>
+      </c>
+      <c r="H91">
+        <v>-0.08624210433824364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08662810385994033</v>
+        <v>-0.1001267080509614</v>
       </c>
       <c r="C92">
-        <v>-0.06950941667174383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06119424869199432</v>
+      </c>
+      <c r="D92">
+        <v>-0.3452395916034011</v>
+      </c>
+      <c r="E92">
+        <v>0.05504070458072321</v>
+      </c>
+      <c r="F92">
+        <v>-0.03503121061965561</v>
+      </c>
+      <c r="G92">
+        <v>0.002701104660515795</v>
+      </c>
+      <c r="H92">
+        <v>-0.01970264140861524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06905953908582801</v>
+        <v>-0.0868535538566568</v>
       </c>
       <c r="C93">
-        <v>-0.05946686858801829</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.05833933462130245</v>
+      </c>
+      <c r="D93">
+        <v>-0.3032034621809435</v>
+      </c>
+      <c r="E93">
+        <v>0.03885407572471148</v>
+      </c>
+      <c r="F93">
+        <v>-0.04538640837479429</v>
+      </c>
+      <c r="G93">
+        <v>0.004453908234353506</v>
+      </c>
+      <c r="H93">
+        <v>0.009463079280326407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1246500340143585</v>
+        <v>-0.1276935107541717</v>
       </c>
       <c r="C94">
-        <v>-0.07374592281045901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03456059349839757</v>
+      </c>
+      <c r="D94">
+        <v>0.05062911356796229</v>
+      </c>
+      <c r="E94">
+        <v>-0.02096065004028148</v>
+      </c>
+      <c r="F94">
+        <v>-0.02471200471840435</v>
+      </c>
+      <c r="G94">
+        <v>-0.04389169950885632</v>
+      </c>
+      <c r="H94">
+        <v>-0.0937578242350009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1122540313363485</v>
+        <v>-0.1223219966864977</v>
       </c>
       <c r="C95">
-        <v>-0.05390703686464639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02269664846322885</v>
+      </c>
+      <c r="D95">
+        <v>0.06561040203400552</v>
+      </c>
+      <c r="E95">
+        <v>-0.0129318355826978</v>
+      </c>
+      <c r="F95">
+        <v>-0.02574898882467306</v>
+      </c>
+      <c r="G95">
+        <v>-0.01418043539689987</v>
+      </c>
+      <c r="H95">
+        <v>-0.01141368704296783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2010648705947043</v>
+        <v>-0.2170694282437386</v>
       </c>
       <c r="C97">
-        <v>-0.06514090327571145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.02141169101739602</v>
+      </c>
+      <c r="D97">
+        <v>-0.05698474019303224</v>
+      </c>
+      <c r="E97">
+        <v>-0.1819346637621204</v>
+      </c>
+      <c r="F97">
+        <v>0.8950484287386181</v>
+      </c>
+      <c r="G97">
+        <v>0.1578870756288158</v>
+      </c>
+      <c r="H97">
+        <v>0.004750879981909785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2410404720451483</v>
+        <v>-0.2672416483210661</v>
       </c>
       <c r="C98">
-        <v>-0.1053975300525735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04864058280711749</v>
+      </c>
+      <c r="D98">
+        <v>0.05650306593880751</v>
+      </c>
+      <c r="E98">
+        <v>-0.157297684509443</v>
+      </c>
+      <c r="F98">
+        <v>-0.05139442410047951</v>
+      </c>
+      <c r="G98">
+        <v>-0.2695193988494851</v>
+      </c>
+      <c r="H98">
+        <v>0.2080228330332076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.529843748238544</v>
+        <v>-0.3246069777010359</v>
       </c>
       <c r="C99">
-        <v>0.8372881668715457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9340806804216498</v>
+      </c>
+      <c r="D99">
+        <v>-0.06006901132762266</v>
+      </c>
+      <c r="E99">
+        <v>0.04260699738782218</v>
+      </c>
+      <c r="F99">
+        <v>-0.04229658324470058</v>
+      </c>
+      <c r="G99">
+        <v>-0.01352313975307655</v>
+      </c>
+      <c r="H99">
+        <v>-0.0445889266836379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03836003155341448</v>
+        <v>-0.04629920574957013</v>
       </c>
       <c r="C101">
-        <v>-0.03122002191192202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02340299282436488</v>
+      </c>
+      <c r="D101">
+        <v>0.01096292352759157</v>
+      </c>
+      <c r="E101">
+        <v>0.04176859375088</v>
+      </c>
+      <c r="F101">
+        <v>-0.007964358157936868</v>
+      </c>
+      <c r="G101">
+        <v>-0.01018934818496356</v>
+      </c>
+      <c r="H101">
+        <v>-0.09046463989461717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
